--- a/mcmaster_excel/Metric_Brass_Pan_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Metric_Brass_Pan_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,96 +434,146 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brass</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>90928A205</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>$16.77</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,26 +603,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>90928A205</t>
+          <t>90928A207</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$16.77</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -607,21 +665,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>90928A207</t>
+          <t>90928A209</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,21 +722,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>90928A209</t>
+          <t>90928A211</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -680,12 +754,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -695,48 +769,96 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DIN 85, ISO 1580</t>
+          <t>DIN 85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>90928A211</t>
+          <t>90928A300</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DIN 85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>90928A301</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -771,21 +893,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>90928A300</t>
+          <t>90928A305</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>16.25</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,7 +950,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90928A301</t>
+          <t>90928A309</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -828,13 +958,21 @@
           <t>19.05</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -869,21 +1007,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>90928A305</t>
+          <t>90928A313</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19.05</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -918,21 +1064,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90928A309</t>
+          <t>90928A317</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>19.05</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -962,26 +1116,34 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>90928A313</t>
+          <t>90928A319</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1011,26 +1173,34 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>90928A317</t>
+          <t>90928A321</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17.77</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1040,12 +1210,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1055,7 +1225,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DIN 85</t>
+          <t>DIN 85, ISO 1580</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1065,87 +1235,143 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>90928A319</t>
+          <t>90928A327</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>DIN 85</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>90928A321</t>
+          <t>90928A331</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.47</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>90928A337</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1180,21 +1406,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90928A327</t>
+          <t>90928A342</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1219,7 +1453,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DIN 85, ISO 1580</t>
+          <t>DIN 85</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1229,21 +1463,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>90928A331</t>
+          <t>90928A344</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1268,7 +1510,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DIN 85, ISO 1580</t>
+          <t>DIN 85</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1278,21 +1520,29 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>90928A337</t>
+          <t>90928A346</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1317,31 +1567,39 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DIN 85, ISO 1580</t>
+          <t>DIN 85</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>90928A342</t>
+          <t>90928A348</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1351,12 +1609,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1371,26 +1629,34 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>90928A344</t>
+          <t>90928A355</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1400,12 +1666,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1420,26 +1686,34 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90928A346</t>
+          <t>90928A356</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16.44</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1449,12 +1723,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1474,38 +1748,86 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>90928A348</t>
+          <t>90928A357</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8.54</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DIN 85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>90928A358</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1540,16 +1862,24 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>90928A355</t>
+          <t>90928A359</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1564,12 +1894,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1579,7 +1909,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DIN 85</t>
+          <t>DIN 85, ISO 1580</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1589,16 +1919,24 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90928A356</t>
+          <t>90928A378</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>8.39</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1613,12 +1951,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1628,7 +1966,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DIN 85</t>
+          <t>DIN 85, ISO 1580</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1638,16 +1976,24 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>90928A357</t>
+          <t>90928A382</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1662,12 +2008,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1677,7 +2023,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DIN 85</t>
+          <t>DIN 85, ISO 1580</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1687,16 +2033,24 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90928A358</t>
+          <t>90928A385</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1711,12 +2065,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1736,278 +2090,81 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90928A359</t>
+          <t>90928A388</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>DIN 85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>90928A399</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>90928A378</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>90928A382</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>90928A385</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>DIN 85</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>90928A388</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>15.27</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>DIN 85</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>90928A399</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>16.88</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Brass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
